--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2156.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2156.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.430820637946223</v>
+        <v>0.9117641448974609</v>
       </c>
       <c r="B1">
-        <v>3.088964416253039</v>
+        <v>1.465642094612122</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.150738795269281</v>
+        <v>1.657983422279358</v>
       </c>
       <c r="E1">
-        <v>0.6614852232174978</v>
+        <v>1.083024621009827</v>
       </c>
     </row>
   </sheetData>
